--- a/processed/claims_pizzagate.xlsx
+++ b/processed/claims_pizzagate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\NLP project\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B11AEC-9B16-4520-A023-2D5C790DBEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745F06EA-269E-42F2-A231-EC71E7527E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C3330F6-ABFA-4E35-9579-3EF9DFDA3308}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2C3330F6-ABFA-4E35-9579-3EF9DFDA3308}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Pizzagate is a conspiracy theory</t>
   </si>
@@ -87,6 +81,75 @@
   </si>
   <si>
     <t>Alex Jones says Pizzagate is a hoax</t>
+  </si>
+  <si>
+    <t>positive claim</t>
+  </si>
+  <si>
+    <t>article 1</t>
+  </si>
+  <si>
+    <t>article 2</t>
+  </si>
+  <si>
+    <t>article 3</t>
+  </si>
+  <si>
+    <t>article 4</t>
+  </si>
+  <si>
+    <t>article 5</t>
+  </si>
+  <si>
+    <t>counter_article 1</t>
+  </si>
+  <si>
+    <t>counter_article 2</t>
+  </si>
+  <si>
+    <t>counter_article 3</t>
+  </si>
+  <si>
+    <t>counter_article 4</t>
+  </si>
+  <si>
+    <t>counter_article 5</t>
+  </si>
+  <si>
+    <t>Extremists are motivated by pizzagate</t>
+  </si>
+  <si>
+    <t>pizzagate_10</t>
+  </si>
+  <si>
+    <t>Pizzagate is a religion</t>
+  </si>
+  <si>
+    <t>pizzagate_13</t>
+  </si>
+  <si>
+    <t>Conspiracy Theories are dangerous</t>
+  </si>
+  <si>
+    <t>pizzagate_15</t>
+  </si>
+  <si>
+    <t>Fake news is a threat</t>
+  </si>
+  <si>
+    <t>pizzagate_21</t>
+  </si>
+  <si>
+    <t>Pizzagate is fake news</t>
+  </si>
+  <si>
+    <t>pizzagate_27</t>
+  </si>
+  <si>
+    <t>pizzagate_29</t>
+  </si>
+  <si>
+    <t>pizzagate_30</t>
   </si>
 </sst>
 </file>
@@ -430,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E705410-829D-428D-AB7F-89C8724CA370}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,87 +512,163 @@
     <col min="1" max="2" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
